--- a/build/resources/test/Data/Data.xlsx
+++ b/build/resources/test/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQ01\IdeaProjects\Alkomprar\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8BA386-34D8-4372-88AC-815A6587224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251312D-92F9-4885-8CC3-F744DF371A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{186621EF-0986-472F-BCA7-D0ADFBA1F28C}"/>
   </bookViews>
@@ -25,30 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Correo</t>
   </si>
   <si>
-    <t>ejemplo1@gmail.com</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>Apellido</t>
   </si>
   <si>
-    <t>Lorena</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefono </t>
-  </si>
-  <si>
-    <t>3131245897</t>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>lugo</t>
+  </si>
+  <si>
+    <t>3121000797</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>loreren1339@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E6F98-378D-419C-88A2-AE0C79854BFA}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,33 +430,41 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
